--- a/biology/Médecine/Prix_japonais/Prix_japonais.xlsx
+++ b/biology/Médecine/Prix_japonais/Prix_japonais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix du Japon (日本国際賞, Nihon-kokusai-shō,?, en anglais : Japan Prize) est décerné à des personnes à travers le monde dont « les accomplissements originaux et exceptionnels en sciences ou en technologie sont reconnus comme ayant fait avancer les frontières de la connaissance et servi la cause de la paix et de la prospérité de l'humanité »[1]. Le prix est décerné par la Japan Prize Foundation. Depuis sa création en 1985, la fondation a décerné un prix à 81 personnes, de 13 pays différents.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix du Japon (日本国際賞, Nihon-kokusai-shō,?, en anglais : Japan Prize) est décerné à des personnes à travers le monde dont « les accomplissements originaux et exceptionnels en sciences ou en technologie sont reconnus comme ayant fait avancer les frontières de la connaissance et servi la cause de la paix et de la prospérité de l'humanité ». Le prix est décerné par la Japan Prize Foundation. Depuis sa création en 1985, la fondation a décerné un prix à 81 personnes, de 13 pays différents.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Informations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prix consiste en un certificat, une médaille commémorative et un prix d'une valeur approximative de cinquante millions de yens. Seules les personnes vivantes peuvent être nommées. Aucune discrimination n'est faite sur la nationalité, le métier, l'ethnie ou le genre. Chaque novembre, la fondation sélectionne deux domaines pour le prix, suivant les dernières modes et évolutions dans le domaine des sciences et de la technologie. Le processus de sélection et de nomination prend environ une année. Les lauréats sont annoncés en janvier.
 La remise des prix commence par une cérémonie présidée par l'Empereur du Japon et l'impératrice. Le Premier ministre du Japon, les présidents des assemblées parlementaires, le procureur-en-chef de la Cour Suprême, les ambassadeurs ainsi qu'un millier d'autres invités, dont des membres du monde académique, de l'entreprise et de la presse, sont invités. L'évènement se déroule au Théâtre national du Japon.
@@ -544,7 +558,9 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La création du Prix du Japon fut motivé par la volonté du Japon d'exprimer sa gratitude à la société internationale pour ses progrès. Le prix fut sponsorisé à l'origine par Kōnosuke Matsushita, fondateur de Panasonic. Il devint ainsi le premier président de la Fondation.
 C'est en 1982 que la fondation est établie juridiquement, et qu'elle est reconnue par le cabinet du Premier ministre. En 1985 a lieu la première cérémonie à Tokyo.
@@ -576,7 +592,9 @@
           <t>Les lauréats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1985 : John Robinson Pierce et Ephraïm Katzir
 1986 : David Turnbull (en) et Willem Johan Kolff
@@ -606,11 +624,11 @@
 2010 : Shun’ichi Iwasaki (de) et Peter Vitousek (en)
 2011 : Kenneth Thompson et Dennis Ritchie, Tadamitsu Kishimoto (en) et Toshio Hirano
 2012 :
-Janet Rowley, Brian Druker et Nicholas Lydon en médecine[2]
-Masato Sagawa en énergie[2]
+Janet Rowley, Brian Druker et Nicholas Lydon en médecine
+Masato Sagawa en énergie
 2013 : C. Grant Willson, Jean Fréchet et John Frederick Grassle
 2014 : Yasuharu Suematsu (en) et Charles David Allis (en)
-2015 : Yutaka Takahasi, Theodore Friedmann, Alain Fischer[3]
+2015 : Yutaka Takahasi, Theodore Friedmann, Alain Fischer
 2016 : Hideo Hosono, Steven Dale Tanksley
 2017 :
 Emmanuelle Charpentier &amp; Jennifer Doudna
